--- a/fuentes/contenidos/grado11/guion06/SolicitudGrafica MA_11_06_REC290_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion06/SolicitudGrafica MA_11_06_REC290_CO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joan/Dropbox/Aula planeta/Entregas/Entrega 25 (cuenta para agosto) X/REC290 (M101A)X/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado11\guion06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16095" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,8 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1566,6 +1563,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1664,7 +1662,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1771,7 +1768,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1793,13 +1790,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
+          <xdr:colOff>1038225</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -1848,13 +1845,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1057275</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -1903,7 +1900,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1960,13 +1957,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2013,15 +2010,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1019175</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2070,13 +2067,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2125,13 +2122,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>714375</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2498,34 +2495,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="14" max="15" width="10.875" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2544,19 +2541,19 @@
         <v>Ubicación de la imagen en el recurso M101</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="F2" s="78" t="s">
+      <c r="D2" s="87"/>
+      <c r="F2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2575,17 +2572,17 @@
         <v>M3A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="88">
         <v>11</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="81"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2604,15 +2601,15 @@
         <v>M5A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2636,13 +2633,13 @@
         <v>M6A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2667,7 +2664,7 @@
         <v>M7A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2691,7 +2688,7 @@
         <v>M8A</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>40</v>
@@ -2720,18 +2717,18 @@
         <v>M9B</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2747,7 +2744,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="38.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -2787,7 +2784,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -2821,7 +2818,7 @@
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J10" s="109" t="s">
+      <c r="J10" s="78" t="s">
         <v>190</v>
       </c>
       <c r="K10" s="64" t="s">
@@ -2832,7 +2829,7 @@
         <v>M12D</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -2866,7 +2863,7 @@
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J11" s="109" t="s">
+      <c r="J11" s="78" t="s">
         <v>191</v>
       </c>
       <c r="K11" s="65" t="s">
@@ -2877,7 +2874,7 @@
         <v>M101</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
@@ -2911,7 +2908,7 @@
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="78" t="s">
         <v>192</v>
       </c>
       <c r="K12" s="64" t="s">
@@ -2922,12 +2919,12 @@
         <v>Diaporama F1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="109">
+      <c r="B13" s="78">
         <v>422808196</v>
       </c>
       <c r="C13" s="20" t="str">
@@ -2956,7 +2953,7 @@
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J13" s="109" t="s">
+      <c r="J13" s="78" t="s">
         <v>193</v>
       </c>
       <c r="K13" s="64" t="s">
@@ -2967,7 +2964,7 @@
         <v>F4</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3002,7 +2999,7 @@
         <v>F6</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3037,7 +3034,7 @@
         <v>F6B</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3072,7 +3069,7 @@
         <v>F7</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3107,7 +3104,7 @@
         <v>F7B</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3142,7 +3139,7 @@
         <v>F8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3177,7 +3174,7 @@
         <v>F10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3212,7 +3209,7 @@
         <v>F10B</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3247,7 +3244,7 @@
         <v>F11</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3282,7 +3279,7 @@
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3317,7 +3314,7 @@
         <v>F13</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3352,7 +3349,7 @@
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3383,7 +3380,7 @@
       <c r="J25" s="63"/>
       <c r="K25" s="64"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3414,7 +3411,7 @@
       <c r="J26" s="63"/>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3446,7 +3443,7 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3477,7 +3474,7 @@
       <c r="J28" s="64"/>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3508,7 +3505,7 @@
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3539,7 +3536,7 @@
       <c r="J30" s="64"/>
       <c r="K30" s="64"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3570,7 +3567,7 @@
       <c r="J31" s="64"/>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3601,7 +3598,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3632,7 +3629,7 @@
       <c r="J33" s="64"/>
       <c r="K33" s="64"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3664,7 +3661,7 @@
       <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3696,7 +3693,7 @@
       <c r="K35" s="65"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3728,7 +3725,7 @@
       <c r="K36" s="65"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3759,7 +3756,7 @@
       <c r="J37" s="70"/>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3790,7 +3787,7 @@
       <c r="J38" s="71"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3821,7 +3818,7 @@
       <c r="J39" s="63"/>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3852,7 +3849,7 @@
       <c r="J40" s="63"/>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3883,7 +3880,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3914,7 +3911,7 @@
       <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3945,7 +3942,7 @@
       <c r="J43" s="63"/>
       <c r="K43" s="65"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -3976,7 +3973,7 @@
       <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4007,7 +4004,7 @@
       <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4038,7 +4035,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4069,7 +4066,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4100,7 +4097,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4131,7 +4128,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4162,7 +4159,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4193,7 +4190,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4224,7 +4221,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4255,7 +4252,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4286,7 +4283,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4317,7 +4314,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4348,7 +4345,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4379,7 +4376,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4410,7 +4407,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4441,7 +4438,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4472,7 +4469,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4503,7 +4500,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4534,7 +4531,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4565,7 +4562,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4596,7 +4593,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4627,7 +4624,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4658,7 +4655,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4689,7 +4686,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4720,7 +4717,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4751,7 +4748,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4782,7 +4779,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4813,7 +4810,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4844,7 +4841,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4875,7 +4872,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4906,7 +4903,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4937,7 +4934,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4968,7 +4965,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4999,7 +4996,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5030,7 +5027,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5061,7 +5058,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5092,7 +5089,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5123,7 +5120,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5154,7 +5151,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5185,7 +5182,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5216,7 +5213,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5247,7 +5244,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5278,7 +5275,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5309,7 +5306,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5340,7 +5337,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5371,7 +5368,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5402,7 +5399,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5433,7 +5430,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5464,7 +5461,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5495,7 +5492,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5526,7 +5523,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5557,7 +5554,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5588,7 +5585,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5619,7 +5616,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5650,7 +5647,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5681,7 +5678,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5712,7 +5709,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5743,7 +5740,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5774,7 +5771,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5805,7 +5802,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5836,7 +5833,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5867,7 +5864,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5898,7 +5895,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5929,7 +5926,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6007,56 +6004,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="22"/>
-    <col min="3" max="3" width="13.83203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="22" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="72.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="22"/>
+    <col min="3" max="3" width="13.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="22" customWidth="1"/>
+    <col min="5" max="7" width="10.875" style="22"/>
     <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="22"/>
+    <col min="12" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6071,7 +6068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6099,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6107,11 +6104,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="105" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6126,7 +6123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6148,7 +6145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6156,12 +6153,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="91" t="str">
+      <c r="D7" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6175,7 +6172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6194,7 +6191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6213,7 +6210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6232,7 +6229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
@@ -6243,7 +6240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6254,15 +6251,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6273,7 +6270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6290,17 +6287,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6308,7 +6305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6332,7 +6329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
@@ -6340,12 +6337,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="99" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6353,7 +6350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6361,12 +6358,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="91" t="str">
+      <c r="D18" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6374,7 +6371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
@@ -6393,7 +6390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6415,7 +6412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="22" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6432,122 +6429,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="22" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6581,19 +6578,18 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6602,21 +6598,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1019175</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6627,19 +6622,18 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6650,19 +6644,18 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>714375</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6671,13 +6664,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1038225</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -6685,7 +6678,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6694,13 +6686,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:colOff>1057275</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>863600</xdr:colOff>
+                    <xdr:colOff>866775</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -6708,7 +6700,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6717,7 +6708,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6731,11 +6722,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
 </worksheet>
 </file>
@@ -6749,56 +6738,56 @@
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="22" customWidth="1"/>
     <col min="3" max="3" width="17" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="22" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="22" customWidth="1"/>
     <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="22"/>
+    <col min="11" max="16384" width="10.875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
@@ -6806,7 +6795,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -6831,7 +6820,7 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
@@ -6860,7 +6849,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
@@ -6889,7 +6878,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
@@ -6918,7 +6907,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -6943,7 +6932,7 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
@@ -6972,7 +6961,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
@@ -7001,7 +6990,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
@@ -7030,7 +7019,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
@@ -7055,7 +7044,7 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
@@ -7084,7 +7073,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -7113,7 +7102,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7136,7 +7125,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="77" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="75" t="s">
         <v>96</v>
       </c>
@@ -7162,7 +7151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7190,7 +7179,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7218,7 +7207,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>184</v>
       </c>
@@ -7244,7 +7233,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
@@ -7268,7 +7257,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>137</v>
       </c>
@@ -7292,7 +7281,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
@@ -7316,7 +7305,7 @@
       <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>132</v>
       </c>
@@ -7340,7 +7329,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>132</v>
       </c>
@@ -7369,7 +7358,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
@@ -7392,7 +7381,7 @@
       <c r="H24" s="44"/>
       <c r="I24" s="72"/>
     </row>
-    <row r="25" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>135</v>
       </c>
@@ -7416,7 +7405,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>135</v>
       </c>
@@ -7445,7 +7434,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>138</v>
       </c>
@@ -7469,7 +7458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>138</v>
       </c>
@@ -7493,7 +7482,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>138</v>
       </c>
@@ -7522,7 +7511,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>139</v>
       </c>
@@ -7545,7 +7534,7 @@
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>140</v>
       </c>
@@ -7562,7 +7551,7 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>141</v>
       </c>
@@ -7577,7 +7566,7 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>136</v>
       </c>
@@ -7598,7 +7587,7 @@
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
@@ -7615,7 +7604,7 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
@@ -7644,7 +7633,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
@@ -7673,7 +7662,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
         <v>143</v>
       </c>
@@ -7696,7 +7685,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
         <v>143</v>
       </c>
@@ -7719,13 +7708,13 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
         <v>108</v>
       </c>
@@ -7739,7 +7728,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
         <v>109</v>
       </c>
@@ -7753,7 +7742,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
         <v>110</v>
       </c>
@@ -7767,7 +7756,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -7781,7 +7770,7 @@
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
         <v>112</v>
       </c>
@@ -7795,7 +7784,7 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
         <v>162</v>
       </c>
